--- a/5. Defect and Bug List/Unit Test Defect Log.xlsx
+++ b/5. Defect and Bug List/Unit Test Defect Log.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\AM4PEPF00028250\EXCELCNV\ed4a3daa-faa2-41ee-8f47-0cf75c6716a9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52BA27F8-E0B2-4FD6-87FB-1EAAF406CD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{889D21B9-F2FC-47F7-AA02-D29FB750CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{29786EA2-D18D-4C98-B80E-88B308A010B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85BD7A06-511D-402D-93C2-75EE24CFDE2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Defects" sheetId="2" r:id="rId1"/>
+    <sheet name="Defects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Defects!$A$3:$H$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,39 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
   <si>
     <t>Bug list</t>
   </si>
   <si>
-    <t>Defect ID</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Check Day in Month</t>
-  </si>
-  <si>
-    <t>Incorrect validation for leap year in February. Expected result: Leap year validation must correctly handle February 29th in leap years.</t>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Allows login even if username and password are filled incorrectly
+Expected result: Display a failed login message</t>
   </si>
   <si>
     <t>Coding Logic</t>
@@ -80,36 +84,59 @@
     <t>High</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Error when entering 31st in months with 30 days. Expected result: System must reject the 31st as an input for months with only 30 days.</t>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Allows sign up even if the information filled in is not in the correct format
+Expected result: Display a failed sign up message</t>
+  </si>
+  <si>
+    <t>Add Product</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Check Date</t>
-  </si>
-  <si>
-    <t>Date input does not validate for year before 1000. Expected result: Year input should be restricted to the range of 1000-3000.</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Month and year input does not restrict invalid characters.Expected result: Month and year inputs should only accept numeric values.</t>
+    <t>DeleteProduct</t>
+  </si>
+  <si>
+    <t>Cannot delete product
+Expected result: when a user clicks on the trash icon of a product type, that product type must be deleted</t>
+  </si>
+  <si>
+    <t>Feature missing</t>
+  </si>
+  <si>
+    <t>Add Provider</t>
+  </si>
+  <si>
+    <t>Allow adding provider even if provider information is not entered completely or has duplicate id
+Expected result: Display a failed adding message</t>
+  </si>
+  <si>
+    <t>Allow adding product even if product information is not entered completely or has duplicate id
+Expected result: Display a failed adding message</t>
+  </si>
+  <si>
+    <t>Create Purchase Order</t>
+  </si>
+  <si>
+    <t>Allow creating purchase order even if the information is not filled completely, has duplicate id or quantity is not a positive number
+Expected result: display a failed creation message</t>
+  </si>
+  <si>
+    <t>Create Sale Order</t>
+  </si>
+  <si>
+    <t>Allow creating sale order even if the information is not filled completely, has duplicate id, quantity is not a positive number or phone number is not exactly 10 digits
+Expected result: display a failed creation message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="B1dd\-mmm\-yy"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,22 +166,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
   </fonts>
   <fills count="4">
@@ -177,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -201,24 +220,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -226,19 +251,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -249,38 +261,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -292,54 +274,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{27FB52D3-D18C-4183-830F-5A7BCCD0FC57}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{112411F4-EF03-48C3-A003-CD3427D0B853}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,195 +619,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317EAF88-BE85-4083-AA16-CD489FA06FDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E99135-B766-45A3-8C73-8B9DDA4833B8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="25.5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="72" customHeight="1">
-      <c r="A4" s="4">
+    </row>
+    <row r="4" spans="1:8" ht="39.6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="76.150000000000006" customHeight="1">
+      <c r="H4" s="11">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="52.8">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="78.599999999999994" customHeight="1">
+      <c r="H5" s="11">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" customHeight="1">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="11">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="56.4" customHeight="1">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="11">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="73.2" customHeight="1">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="81.599999999999994" customHeight="1">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="52.8">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="64.900000000000006" customHeight="1">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3">
-        <v>45611</v>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11">
+        <v>45617</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7" xr:uid="{C7D328F9-7EF8-413E-8861-AF8656C61A43}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{2A62AAAE-DF27-4470-95B4-DE5804330D5C}">
+      <formula1>"User Interface, Business Logic, Feature missing, Coding Logic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E10" xr:uid="{93D1DAE0-854C-4E39-9A1E-1AA2CE41BA6A}">
+      <formula1>"Fatal,Serious,Medium,Cosmetic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F10" xr:uid="{CEB78CF6-BE89-48D9-96C5-34180B0C5A5B}">
+      <formula1>"Immediately,High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G10" xr:uid="{53194D71-3B5B-4E3A-B44F-E0178946E241}">
       <formula1>"Open,Pending,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{56C1ED3A-53A1-4A1A-925E-CEE3C158C12C}">
-      <formula1>"Immediately,High,Medium,Low"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{F144D52F-9C05-43CB-8D73-E33D0F700EF4}">
-      <formula1>"Fatal,Serious,Medium,Cosmetic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7" xr:uid="{E6CF037B-2C39-4764-AEA8-EA90417224E4}">
-      <formula1>"User Interface, Business Logic, Feature missing, Coding Logic"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>